--- a/GasDist/Examples/Двит.xlsx
+++ b/GasDist/Examples/Двит.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code PET\repos\GasDistribution\GasDist\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\source\repos\avasaris\GasDistribution\GasDist\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3E000D-ED59-4AAC-B352-FB30AA98D7EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="58">
   <si>
     <t>ClientCode</t>
   </si>
@@ -204,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -250,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -273,12 +274,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="60"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="60"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="60"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="60"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="60"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="60"/>
+      </right>
+      <top style="thin">
+        <color indexed="60"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="60"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -301,10 +339,37 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Лист1" xfId="1"/>
+    <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,10 +646,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -753,105 +820,105 @@
       <c r="J2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="K2" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" s="5">
-        <v>0.48199999999999998</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="O2" s="5">
-        <v>0.47599999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="P2" s="5">
-        <v>0.47599999999999998</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="Q2" s="5">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="R2" s="6">
-        <v>0.48</v>
-      </c>
-      <c r="S2" s="6">
-        <v>0.48</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="R2" s="5">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="S2" s="5">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="T2" s="5">
-        <v>0.48599999999999999</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="U2" s="5">
-        <v>0.47799999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="V2" s="5">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="W2" s="6">
-        <v>0.47</v>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="W2" s="5">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="X2" s="5">
-        <v>0.47799999999999998</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="Y2" s="5">
-        <v>0.48399999999999999</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="Z2" s="5">
-        <v>0.48199999999999998</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="AA2" s="5">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>0.48</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="AC2" s="5">
-        <v>0.47599999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AD2" s="5">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>0.48</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AF2" s="5">
-        <v>0.48799999999999999</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AG2" s="5">
-        <v>0.47199999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AH2" s="5">
-        <v>0.48599999999999999</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AI2" s="5">
-        <v>0.45400000000000001</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AJ2" s="5">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="AK2" s="6">
-        <v>0.45</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AL2" s="5">
-        <v>0.44600000000000001</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AM2" s="5">
-        <v>0.46200000000000002</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AN2" s="5">
-        <v>0.45600000000000002</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AO2" s="5">
-        <v>0.44600000000000001</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AP2" s="5">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="AQ2" s="6">
-        <v>0.45</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AQ2" s="5">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AR2" s="5">
-        <v>0.44600000000000001</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
@@ -885,105 +952,105 @@
       <c r="J3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="M3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="O3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="P3" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="Q3" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="R3" s="5">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="S3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.48</v>
       </c>
       <c r="T3" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="U3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="V3" s="5">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="W3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0.47</v>
       </c>
       <c r="X3" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="Y3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="Z3" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="AA3" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="AB3" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>0.48</v>
       </c>
       <c r="AC3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="AD3" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="AE3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>0.48</v>
       </c>
       <c r="AF3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="AG3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="AH3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="AI3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="AJ3" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="AK3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>0.45</v>
       </c>
       <c r="AL3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="AM3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="AN3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="AO3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="AP3" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="AQ3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="AQ3" s="6">
+        <v>0.45</v>
       </c>
       <c r="AR3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -1017,105 +1084,105 @@
       <c r="J4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="K4" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N4" s="5">
-        <v>0.16600000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="O4" s="5">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>0.17</v>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="P4" s="5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="R4" s="5">
-        <v>0.16600000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="S4" s="5">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="T4" s="6">
-        <v>0.16</v>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="T4" s="5">
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="U4" s="5">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="V4" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="W4" s="6">
-        <v>0.17</v>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="V4" s="5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="W4" s="5">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="X4" s="5">
-        <v>0.16800000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="Y4" s="5">
-        <v>0.156</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="Z4" s="5">
-        <v>0.16400000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AA4" s="5">
-        <v>0.16200000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="AB4" s="5">
-        <v>0.16600000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AC4" s="5">
-        <v>0.16400000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="AD4" s="5">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="AE4" s="6">
-        <v>0.16</v>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="AF4" s="5">
-        <v>0.158</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AG4" s="5">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="AH4" s="6">
-        <v>0.16</v>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AI4" s="5">
-        <v>0.186</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="AJ4" s="5">
-        <v>0.182</v>
-      </c>
-      <c r="AK4" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="AL4" s="7">
-        <v>0.2</v>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="AM4" s="5">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="AN4" s="6">
-        <v>0.19</v>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="AO4" s="5">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="AP4" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="AQ4" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="AR4" s="7">
-        <v>0.2</v>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AQ4" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AR4" s="5">
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -1149,105 +1216,105 @@
       <c r="J5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="M5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N5" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="O5" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="P5" s="5">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0.17</v>
       </c>
       <c r="R5" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="S5" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="T5" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0.16</v>
       </c>
       <c r="U5" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="V5" s="5">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="W5" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0.17</v>
       </c>
       <c r="X5" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="Y5" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.156</v>
       </c>
       <c r="Z5" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="AA5" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="AB5" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="AC5" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="AD5" s="5">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>0.16</v>
       </c>
       <c r="AF5" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.158</v>
       </c>
       <c r="AG5" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>0.16</v>
       </c>
       <c r="AI5" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.186</v>
       </c>
       <c r="AJ5" s="5">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.182</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>0.2</v>
       </c>
       <c r="AM5" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="AN5" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>0.19</v>
       </c>
       <c r="AO5" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="AP5" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="AQ5" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="AR5" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AP5" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -1281,15 +1348,15 @@
       <c r="J6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="K6" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0.25800000000000001</v>
+        <v>53</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.26</v>
       </c>
       <c r="O6" s="5">
         <v>0.25800000000000001</v>
@@ -1378,8 +1445,8 @@
       <c r="AQ6" s="5">
         <v>0.25800000000000001</v>
       </c>
-      <c r="AR6" s="6">
-        <v>0.26</v>
+      <c r="AR6" s="5">
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -1413,105 +1480,105 @@
       <c r="J7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="M7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="6">
+        <v>52</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AO7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AP7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AQ7" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AR7" s="6">
         <v>0.26</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="T7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AH7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AI7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AJ7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AK7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AL7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AM7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AN7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AO7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AP7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AQ7" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AR7" s="5">
-        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -1545,12 +1612,12 @@
       <c r="J8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="K8" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N8" s="4">
         <v>0</v>
@@ -1677,12 +1744,12 @@
       <c r="J9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="M9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
@@ -1784,394 +1851,332 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B3" s="11">
+        <v>7254</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="G9" s="4">
         <v>3</v>
       </c>
-      <c r="D9" s="4">
+      <c r="H9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="4">
+      <c r="I9" s="4">
         <v>3</v>
-      </c>
-      <c r="F9" s="4">
-        <v>4</v>
-      </c>
-      <c r="G9" s="4">
-        <v>4</v>
-      </c>
-      <c r="H9" s="4">
-        <v>4</v>
-      </c>
-      <c r="I9" s="4">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="7">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
+      <c r="D13" s="7">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>51</v>
+      <c r="F13" s="7">
+        <v>1.1000000000000001</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>51</v>
+      <c r="H13" s="7">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="C15" s="5">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="E15" s="5">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5">
-        <v>0.47599999999999998</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C16" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="D16" s="5">
-        <v>0.17199999999999999</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.25800000000000001</v>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.26</v>
       </c>
       <c r="G16" s="5">
         <v>0.25800000000000001</v>
@@ -2185,19 +2190,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C17" s="5">
         <v>0.47599999999999998</v>
       </c>
-      <c r="C17" s="5">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.17</v>
+      <c r="D17" s="5">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="F17" s="5">
         <v>0.25800000000000001</v>
@@ -2214,19 +2219,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="5">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C18" s="5">
         <v>0.47599999999999998</v>
       </c>
-      <c r="C18" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E18" s="6">
         <v>0.17</v>
-      </c>
-      <c r="E18" s="5">
-        <v>9.6000000000000002E-2</v>
       </c>
       <c r="F18" s="5">
         <v>0.25800000000000001</v>
@@ -2243,19 +2248,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0.48</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C19" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D19" s="5">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="E19" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.17</v>
       </c>
       <c r="F19" s="5">
         <v>0.25800000000000001</v>
@@ -2272,19 +2277,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C20" s="6">
         <v>0.48</v>
       </c>
-      <c r="C20" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
       <c r="D20" s="5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E20" s="5">
         <v>0.16600000000000001</v>
-      </c>
-      <c r="E20" s="5">
-        <v>9.6000000000000002E-2</v>
       </c>
       <c r="F20" s="5">
         <v>0.25800000000000001</v>
@@ -2301,19 +2306,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="C21" s="5">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.16</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="D21" s="5">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E21" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="F21" s="5">
         <v>0.25800000000000001</v>
@@ -2330,19 +2335,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5">
-        <v>0.47799999999999998</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C22" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D22" s="5">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="E22" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.16</v>
       </c>
       <c r="F22" s="5">
         <v>0.25800000000000001</v>
@@ -2359,19 +2364,19 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5">
-        <v>0.46600000000000003</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C23" s="5">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.18</v>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D23" s="5">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E23" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F23" s="5">
         <v>0.25800000000000001</v>
@@ -2388,19 +2393,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0.47</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="5">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C24" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="E24" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D24" s="5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.18</v>
       </c>
       <c r="F24" s="5">
         <v>0.25800000000000001</v>
@@ -2417,19 +2422,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="C25" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.47</v>
       </c>
       <c r="D25" s="5">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="E25" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.17</v>
       </c>
       <c r="F25" s="5">
         <v>0.25800000000000001</v>
@@ -2446,19 +2451,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="5">
-        <v>0.48399999999999999</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C26" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D26" s="5">
-        <v>0.156</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E26" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F26" s="5">
         <v>0.25800000000000001</v>
@@ -2475,19 +2480,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="5">
-        <v>0.48199999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C27" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D27" s="5">
-        <v>0.16400000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E27" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.156</v>
       </c>
       <c r="F27" s="5">
         <v>0.25800000000000001</v>
@@ -2504,19 +2509,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5">
-        <v>0.47799999999999998</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C28" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="D28" s="5">
-        <v>0.16200000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E28" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="F28" s="5">
         <v>0.25800000000000001</v>
@@ -2533,19 +2538,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6">
-        <v>0.48</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="5">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C29" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D29" s="5">
-        <v>0.16600000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E29" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="F29" s="5">
         <v>0.25800000000000001</v>
@@ -2562,19 +2567,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="5">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="C30" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.48</v>
       </c>
       <c r="D30" s="5">
-        <v>0.16400000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E30" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="F30" s="5">
         <v>0.25800000000000001</v>
@@ -2591,19 +2596,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5">
-        <v>0.47799999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C31" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D31" s="5">
-        <v>0.16800000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E31" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="F31" s="5">
         <v>0.25800000000000001</v>
@@ -2620,19 +2625,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6">
-        <v>0.48</v>
+        <v>29</v>
+      </c>
+      <c r="B32" s="5">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C32" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0.16</v>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D32" s="5">
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E32" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F32" s="5">
         <v>0.25800000000000001</v>
@@ -2649,19 +2654,19 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="5">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="C33" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.48</v>
       </c>
       <c r="D33" s="5">
-        <v>0.158</v>
-      </c>
-      <c r="E33" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.16</v>
       </c>
       <c r="F33" s="5">
         <v>0.25800000000000001</v>
@@ -2678,19 +2683,19 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="5">
-        <v>0.47199999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C34" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D34" s="5">
-        <v>0.16800000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E34" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.158</v>
       </c>
       <c r="F34" s="5">
         <v>0.25800000000000001</v>
@@ -2707,19 +2712,19 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="5">
-        <v>0.48599999999999999</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C35" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0.16</v>
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D35" s="5">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E35" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F35" s="5">
         <v>0.25800000000000001</v>
@@ -2736,19 +2741,19 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="5">
-        <v>0.45400000000000001</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C36" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D36" s="5">
-        <v>0.186</v>
-      </c>
-      <c r="E36" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.16</v>
       </c>
       <c r="F36" s="5">
         <v>0.25800000000000001</v>
@@ -2765,19 +2770,19 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="5">
-        <v>0.46400000000000002</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C37" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="D37" s="5">
-        <v>0.182</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E37" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.186</v>
       </c>
       <c r="F37" s="5">
         <v>0.25800000000000001</v>
@@ -2794,19 +2799,19 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="6">
-        <v>0.45</v>
+        <v>35</v>
+      </c>
+      <c r="B38" s="5">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C38" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0.19</v>
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="D38" s="5">
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E38" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.182</v>
       </c>
       <c r="F38" s="5">
         <v>0.25800000000000001</v>
@@ -2823,19 +2828,19 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="5">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="C39" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E39" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="D39" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.19</v>
       </c>
       <c r="F39" s="5">
         <v>0.25800000000000001</v>
@@ -2852,19 +2857,19 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="5">
-        <v>0.46200000000000002</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C40" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D40" s="5">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="E40" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.2</v>
       </c>
       <c r="F40" s="5">
         <v>0.25800000000000001</v>
@@ -2881,19 +2886,19 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="5">
-        <v>0.45600000000000002</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C41" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0.19</v>
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D41" s="5">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E41" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="F41" s="5">
         <v>0.25800000000000001</v>
@@ -2910,19 +2915,19 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="5">
-        <v>0.44600000000000001</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C42" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D42" s="5">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="E42" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.19</v>
       </c>
       <c r="F42" s="5">
         <v>0.25800000000000001</v>
@@ -2939,19 +2944,19 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="5">
-        <v>0.46600000000000003</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C43" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0.18</v>
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="D43" s="5">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E43" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="F43" s="5">
         <v>0.25800000000000001</v>
@@ -2968,19 +2973,19 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="6">
-        <v>0.45</v>
+        <v>41</v>
+      </c>
+      <c r="B44" s="5">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C44" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="E44" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D44" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.18</v>
       </c>
       <c r="F44" s="5">
         <v>0.25800000000000001</v>
@@ -2997,34 +3002,74 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="D45" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B46" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C46" s="5">
         <v>0.44600000000000001</v>
       </c>
-      <c r="C45" s="5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="D46" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E46" s="7">
         <v>0.2</v>
       </c>
-      <c r="E45" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="F45" s="6">
+      <c r="F46" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G46" s="6">
         <v>0.26</v>
       </c>
-      <c r="G45" s="5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>